--- a/InventoryManagementForms/bin/Debug/net6.0-windows/Product.xlsx
+++ b/InventoryManagementForms/bin/Debug/net6.0-windows/Product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Description of product 1</t>
   </si>
   <si>
-    <t>testupdateMapper</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>gg</t>
-  </si>
-  <si>
-    <t>hello</t>
   </si>
   <si>
     <t>teststruct</t>
@@ -120,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -154,7 +145,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="0">
-        <v>10.99</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0">
         <v>100</v>
@@ -162,30 +153,30 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0">
-        <v>55.45</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0">
         <v>5</v>
@@ -196,16 +187,16 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="E5" s="0">
         <v>5</v>
@@ -213,7 +204,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -222,52 +213,52 @@
         <v>9</v>
       </c>
       <c r="D6" s="0">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="E6" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="0">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>12</v>
@@ -281,47 +272,47 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -332,13 +323,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -349,13 +340,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -366,13 +357,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -383,13 +374,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -400,13 +391,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -417,13 +408,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -434,188 +425,18 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="0">
-        <v>5</v>
+        <v>5598</v>
       </c>
       <c r="E19" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>22</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="0">
-        <v>5</v>
-      </c>
-      <c r="E20" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>23</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="0">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>24</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="0">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>25</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>26</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="0">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>26</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="0">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>27</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>28</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>29</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>30</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="0">
-        <v>5598</v>
-      </c>
-      <c r="E29" s="0">
         <v>45</v>
       </c>
     </row>
